--- a/hw1_score_s1061506.xlsx
+++ b/hw1_score_s1061506.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University(D)\1081\TEST\108CG_Hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University(D)\1081\TEST\s1061506_CGhw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>坦克前後移動</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,138 +138,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>附註：計分要有寫加分題才有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類拋物線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連續按空白鍵可連續擊發 在第一發沒消失前可繼續第二發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有貼圖，輪子是扁的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少要可以用WASD移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會生成敵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被敵人碰到會死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人附註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（未完成或功能不完整時可撰寫）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會轉動但不完全對 僅5分（方向鍵轉動）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可移動但方向不對沒有分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲管需跟著砲台、車身正確轉動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲管可轉動並方向正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可擊破敵人/計分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發揮個人創意追加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多兩項（共十分），有問題由老師裁定給分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要生出來的敵人皆可跟玩家保持一定距離符合才算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整速度後要明顯有改變（以上三項最好都有明顯改變）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要生成速度符合才算發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">遊戲可以調整難度-生成速度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會轉但沒有配合移動方向不算分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有開始、結束(死亡)的狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比方說按一個鍵開始，或是死掉後=按一個鍵重新開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要可以生成敵人都算分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以是直接死亡，或是有血量（可作為加分項目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是兩側不同方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲彈方向應該沿著砲管出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（請一定要說明！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡頭持續跟著玩家移動，請參考範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有貼圖，沒有扣2分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人需要消失、需要看到分數改變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按 P 重新開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">遊戲過程計時/計分 並顯示出來 </t>
-  </si>
-  <si>
-    <t>附註：計分要有寫加分題才有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類拋物線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連續按空白鍵可連續擊發 在第一發沒消失前可繼續第二發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有貼圖，輪子是扁的！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少要可以用WASD移動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會生成敵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被敵人碰到會死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人附註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（未完成或功能不完整時可撰寫）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會轉動但不完全對 僅5分（方向鍵轉動）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可移動但方向不對沒有分數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砲管需跟著砲台、車身正確轉動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砲管可轉動並方向正確</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加分題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可擊破敵人/計分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發揮個人創意追加功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多兩項（共十分），有問題由老師裁定給分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要生出來的敵人皆可跟玩家保持一定距離符合才算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整速度後要明顯有改變（以上三項最好都有明顯改變）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要生成速度符合才算發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">遊戲可以調整難度-生成速度 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會轉但沒有配合移動方向不算分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有開始、結束(死亡)的狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比方說按一個鍵開始，或是死掉後=按一個鍵重新開始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要可以生成敵人都算分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以是直接死亡，或是有血量（可作為加分項目）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要是兩側不同方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砲彈方向應該沿著砲管出去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（請一定要說明！）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鏡頭持續跟著玩家移動，請參考範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有貼圖，沒有扣2分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人需要消失、需要看到分數改變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
@@ -735,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -750,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
@@ -771,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
@@ -786,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
@@ -801,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
@@ -812,7 +821,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
@@ -846,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -873,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -890,7 +899,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1028,33 +1037,39 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="1">
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1062,72 +1077,82 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -1135,12 +1160,12 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -1148,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">

--- a/hw1_score_s1061506.xlsx
+++ b/hw1_score_s1061506.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>坦克前後移動</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>計時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按 Q 自動左轉，按 E 自動右轉，R 自動前進(靜止下可按 3 次達到最大前進速度)，F 自動後退(靜止下可按 3 次達到最大後退速度)，T 切換鏡頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +412,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
@@ -1163,12 +1170,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="111" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D36" s="1">
         <v>10</v>
       </c>

--- a/hw1_score_s1061506.xlsx
+++ b/hw1_score_s1061506.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>坦克前後移動</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>按 Q 自動左轉，按 E 自動右轉，R 自動前進(靜止下可按 3 次達到最大前進速度)，F 自動後退(靜止下可按 3 次達到最大後退速度)，T 切換鏡頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP = 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +737,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1051,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>61</v>
@@ -1078,8 +1082,12 @@
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
